--- a/datos_osticket/tablas relevantes osTicket.xlsx
+++ b/datos_osticket/tablas relevantes osTicket.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Tabla</t>
   </si>
@@ -75,6 +75,643 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> se señala a qué departamento pertenece el agente por el id de departamento</t>
+    </r>
+  </si>
+  <si>
+    <t>°</t>
+  </si>
+  <si>
+    <t>Almacena los distintos departamentos que existen en la organización.</t>
+  </si>
+  <si>
+    <t>*Por defecto el id_org es 0 que es la que asigna osTicket.</t>
+  </si>
+  <si>
+    <t>Se almacena el nombre completo del usuario,id de organización , fecha de creación y fecha de actualización.</t>
+  </si>
+  <si>
+    <t>Descripción de datos de relevancia</t>
+  </si>
+  <si>
+    <t>Se almacenan datos de login de un usuario registrado como nombre de usuario dentro de la aplicación, contraseña y fecha de registro.</t>
+  </si>
+  <si>
+    <t>Se almacenan los correos electronicos de cada usuario (esté o no registrado).</t>
+  </si>
+  <si>
+    <r>
+      <t>Se almacena</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> el numero de telefono de este usuario.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> apunta al usuario de la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>ost_form</t>
+  </si>
+  <si>
+    <t>ost_form_entry_values</t>
+  </si>
+  <si>
+    <t>ost_form_field</t>
+  </si>
+  <si>
+    <t>ost_form_entry</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Es utilizada para señalar el tipo de registro al que pertenecen cada una de las filas de la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_form_entry.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cada registro señala que tipo de dato y configuración tiene cada fila de la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_form_entry_values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Contiene toda la información que pueda presentarse en los formularios (telefonos, correos, etc).</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entry_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de registro de la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_form_entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>field_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_form_field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y señala que tipo de dato se almacena en value. Si </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>field_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es un 3, en value habrá un numero telefonico, si es un 4 será una nota adjunta al usuario.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cada fila es una conexión con un objecto, por ejemplo un usuario y esta conexión se utiliza para los distintos formularios que presenta osTicket.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*Si </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es "U", este objeto contendrá información de un usuario.
+*Si </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es "U", </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es su</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+*Si </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es "U" y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es 1, esta fila será utilizada como formulario de contactos del usuario.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*Señala si la fila de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_form_entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es información de contacto de un usuario, información de un ticket, etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> apunta al usuario de la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> por defecto está en 0.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">user_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">apunta al usuario de la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> por defecto es 9.
+*Si un registro apunta a algun usuario de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, se considera a ese usuario como registrado y no como invitado.</t>
     </r>
   </si>
   <si>
@@ -126,24 +763,6 @@
     </r>
   </si>
   <si>
-    <t>°</t>
-  </si>
-  <si>
-    <t>Almacena los distintos departamentos que existen en la organización.</t>
-  </si>
-  <si>
-    <t>*Por defecto el id_org es 0 que es la que asigna osTicket.</t>
-  </si>
-  <si>
-    <t>Se almacena el nombre completo del usuario,id de organización , fecha de creación y fecha de actualización.</t>
-  </si>
-  <si>
-    <t>Descripción de datos de relevancia</t>
-  </si>
-  <si>
-    <t>Se almacenan datos de login de un usuario registrado como nombre de usuario dentro de la aplicación, contraseña y fecha de registro.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">*En la columna </t>
     </r>
@@ -192,32 +811,125 @@
     </r>
   </si>
   <si>
-    <t>Se almacenan los correos electronicos de cada usuario (esté o no registrado).</t>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">user_id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">apunta al usuario de la tabla </t>
+    <r>
+      <t xml:space="preserve">* Señala si el dato o fila de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_form_entry_values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es una nota, un telefono u otra información espefica.</t>
+    </r>
+  </si>
+  <si>
+    <t>ost__search</t>
+  </si>
+  <si>
+    <t>Almacena distintos objetos de osticket.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*Si </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es "U", este registro o fila será o contendrá información de un usuario.
+*Si </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es "U", </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es su </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en la tabla </t>
     </r>
     <r>
       <rPr>
@@ -238,183 +950,93 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.
-*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> por defecto es 9.
-*Si un registro apunta a algun usuario de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ost_user</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, se considera a ese usuario como registrado y no como invitado.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>user_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> apunta al usuario de la tabla </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ost_user</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.
-*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>flags</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> por defecto está en 0.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Se almacena</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> el numero de telefono de este usuario.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>user_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> apunta al usuario de la tabla </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ost_user</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
+      <t xml:space="preserve">.
+*Si </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es "U" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es el nombre completo del usuario.
+*Si </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es "U", </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tiene información como el telefono, correo y notas del usuario (Esto separado por espacios).</t>
     </r>
   </si>
 </sst>
@@ -558,9 +1180,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -569,6 +1188,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,27 +1512,27 @@
   <sheetData>
     <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -920,8 +1542,8 @@
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>20</v>
+      <c r="D3" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -933,15 +1555,15 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A11" si="0">A4+1</f>
+        <f t="shared" ref="A5:A9" si="0">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -950,11 +1572,11 @@
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>13</v>
+      <c r="D5" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -963,13 +1585,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="D6" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -978,13 +1600,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -993,13 +1615,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1008,38 +1630,86 @@
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" ref="A10:A12" si="1">A9+1</f>
+        <f t="shared" ref="A10:A14" si="1">A9+1</f>
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/datos_osticket/tablas relevantes osTicket.xlsx
+++ b/datos_osticket/tablas relevantes osTicket.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Tabla</t>
   </si>
@@ -840,9 +840,6 @@
     <t>ost__search</t>
   </si>
   <si>
-    <t>Almacena distintos objetos de osticket.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">*Si </t>
     </r>
@@ -1038,6 +1035,186 @@
       </rPr>
       <t xml:space="preserve"> tiene información como el telefono, correo y notas del usuario (Esto separado por espacios).</t>
     </r>
+  </si>
+  <si>
+    <t>Almacena distintos objetos que osticket utiliza en sus busquedas.</t>
+  </si>
+  <si>
+    <t>ost_help_topic</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cada fila señala el tema o tipo de problema al que pertenecerán los distintos tickets de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_ticket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>ost_ticket</t>
+  </si>
+  <si>
+    <t>ost_ticket_status</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> o numero de ticket es un numero aleatorio de 6 digitos convertidos a strings.
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es un id directo a la tabla ost_ticket_status y señala el estado actual del ticket (abierto, cerrado, eliminado, etc).
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">topic_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>es el id de la tabla ost_hep_topic que señala el asunto del ticket (algun problema, consulta, etc).
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isoverdue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es un campo binario que señala si el ticket no ha sido resuelto dentro del limite establecido.
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>estduedate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es la fecha limite establecida.
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>closed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es la fecha de cierre. Estará nula si no se ha cerrado el ticket.</t>
+    </r>
+  </si>
+  <si>
+    <t>Almacena cada uno de los tickets que generan los dintintos usuarios.</t>
+  </si>
+  <si>
+    <t>Señala el estado actual del ticket.</t>
   </si>
 </sst>
 </file>
@@ -1171,9 +1348,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1183,14 +1357,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1496,10 +1673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,18 +1688,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1539,10 +1716,10 @@
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1554,10 +1731,10 @@
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1569,10 +1746,10 @@
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1584,10 +1761,10 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1599,10 +1776,10 @@
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1614,10 +1791,10 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1629,25 +1806,25 @@
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" ref="A10:A14" si="1">A9+1</f>
+        <f t="shared" ref="A10:A18" si="1">A9+1</f>
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1659,10 +1836,10 @@
       <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1674,10 +1851,10 @@
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1689,10 +1866,10 @@
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1704,12 +1881,62 @@
       <c r="B14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>40</v>
-      </c>
+    </row>
+    <row r="15" spans="1:4" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/datos_osticket/tablas relevantes osTicket.xlsx
+++ b/datos_osticket/tablas relevantes osTicket.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Tabla</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Se almacenan datos de login de un usuario registrado como nombre de usuario dentro de la aplicación, contraseña y fecha de registro.</t>
   </si>
   <si>
-    <t>Se almacenan los correos electronicos de cada usuario (esté o no registrado).</t>
-  </si>
-  <si>
     <r>
       <t>Se almacena</t>
     </r>
@@ -219,49 +216,182 @@
   </si>
   <si>
     <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>entry_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es el </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de registro de la tabla </t>
+      <t xml:space="preserve">*En la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_staff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> se señala que rol tiene el agente por el id de rol.
+*Especificamente en la columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>permissions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de tipo varchar se señala el tipo de accesos a tickets que tiene dicho rol en forma de diccionario JavaScript.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*En la columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>permissions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de tipo varchar se señala los permisos que tiene con respecto a usuarios, se espefica si puede editarlos, crearlos eliminarlos, etc. Este </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> contiene un diccionario Javascript conteniendo esta información. 
+*Igualmente aquí se almacenan datos de ultimo login, fecha de creacion y actualización del agente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Señala si el dato o fila de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_form_entry_values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es una nota, un telefono u otra información espefica.</t>
+    </r>
+  </si>
+  <si>
+    <t>ost__search</t>
+  </si>
+  <si>
+    <t>Almacena distintos objetos que osticket utiliza en sus busquedas.</t>
+  </si>
+  <si>
+    <t>ost_help_topic</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cada fila señala el tema o tipo de problema al que pertenecerán los distintos tickets de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_ticket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>ost_ticket</t>
+  </si>
+  <si>
+    <t>ost_ticket_status</t>
+  </si>
+  <si>
+    <t>Almacena cada uno de los tickets que generan los dintintos usuarios.</t>
+  </si>
+  <si>
+    <t>Señala el estado actual del ticket.</t>
+  </si>
+  <si>
+    <t>Se almacenan los correos electronicos de cada usuario (esté registrado o no).</t>
+  </si>
+  <si>
+    <t>Cada fila es una conexión con un objecto, por ejemplo un usuario o ticket y esta conexión se utiliza para los distintos formularios que presenta osTicket.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Señala si la fila de </t>
     </r>
     <r>
       <rPr>
@@ -282,185 +412,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.
-*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>field_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es el </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de la tabla </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ost_form_field</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> y señala que tipo de dato se almacena en value. Si </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>field_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es un 3, en value habrá un numero telefonico, si es un 4 será una nota adjunta al usuario.</t>
-    </r>
-  </si>
-  <si>
-    <t>Cada fila es una conexión con un objecto, por ejemplo un usuario y esta conexión se utiliza para los distintos formularios que presenta osTicket.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">*Si </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>object_type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es "U", este objeto contendrá información de un usuario.
-*Si </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>object_type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es "U", </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>object_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es su</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> en la tabla </t>
+      <t xml:space="preserve"> es información de contacto de un usuario, información de un ticket, etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> apunta al usuario de la tabla </t>
     </r>
     <r>
       <rPr>
@@ -482,123 +460,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">.
-*Si </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>object_type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es "U" y </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>form_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es 1, esta fila será utilizada como formulario de contactos del usuario.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">*Señala si la fila de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ost_form_entry</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es información de contacto de un usuario, información de un ticket, etc.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>user_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> apunta al usuario de la tabla </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ost_user</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.
-*</t>
+* </t>
     </r>
     <r>
       <rPr>
@@ -625,7 +487,7 @@
   </si>
   <si>
     <r>
-      <t>*</t>
+      <t xml:space="preserve">* </t>
     </r>
     <r>
       <rPr>
@@ -667,8 +529,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.
-*</t>
+      <t xml:space="preserve">.
+* </t>
     </r>
     <r>
       <rPr>
@@ -690,7 +552,28 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> por defecto es 9.
-*Si un registro apunta a algun usuario de </t>
+* Si un registro de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_user_account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> apunta a algun usuario de </t>
     </r>
     <r>
       <rPr>
@@ -716,128 +599,418 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">*En la tabla </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ost_staff</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> se señala que rol tiene el agente por el id de rol.
-*Especificamente en la columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>permissions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de tipo varchar se señala el tipo de accesos a tickets que tiene dicho rol en forma de diccionario JavaScript.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">*En la columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>permissions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de tipo varchar se señala los permisos que tiene con respecto a usuarios, se espefica si puede editarlos, crearlos eliminarlos, etc. Este </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>varchar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> contiene un diccionario Javascript conteniendo esta información. 
-*Igualmente aquí se almacenan datos de ultimo login, fecha de creacion y actualización del agente.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* Señala si el dato o fila de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ost_form_entry_values</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es una nota, un telefono u otra información espefica.</t>
-    </r>
-  </si>
-  <si>
-    <t>ost__search</t>
+      <t xml:space="preserve">* Si </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">form_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(que es el id que apunta a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) es 1 la filá será un objeto de contacto y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es un</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+* Si </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es 2 (id que apunta a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) está fila será una conexión a un ticket y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_ticket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> o numero de ticket es un numero aleatorio de 6 digitos convertidos a strings.
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es un id directo a la tabla</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ost_ticket_status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y señala el estado actual del ticket (abierto, cerrado, eliminado, etc).
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">topic_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">es el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la tabla</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ost_hep_topic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> que señala el asunto del ticket (algun problema, consulta, etc).
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isoverdue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es un campo binario que señala si el ticket no ha sido resuelto dentro del limite establecido.
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>est_duedate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es la fecha limite establecida.
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>closed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es la fecha de cierre. Estará nula si no se ha cerrado el ticket.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -862,28 +1035,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> es "U", este registro o fila será o contendrá información de un usuario.
-*Si </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>object_type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> es "U", </t>
     </r>
     <r>
@@ -937,7 +1088,118 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ost_user</t>
+      <t>ost_user, title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es el nombre completo del usuario y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tiene información como el telefono, correo y notas del usuario (Esto separado por espacios).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Normalmente </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es nulo.
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entry_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de registro de la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_form_entry</t>
     </r>
     <r>
       <rPr>
@@ -948,103 +1210,269 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">.
-*Si </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>object_type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es "U" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>title</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es el nombre completo del usuario.
-*Si </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>object_type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es "U", </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>content</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tiene información como el telefono, correo y notas del usuario (Esto separado por espacios).</t>
-    </r>
-  </si>
-  <si>
-    <t>Almacena distintos objetos que osticket utiliza en sus busquedas.</t>
-  </si>
-  <si>
-    <t>ost_help_topic</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cada fila señala el tema o tipo de problema al que pertenecerán los distintos tickets de </t>
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>field_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_form_field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y señala que tipo de dato se almacena en value.
+* Si </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>field_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es un 3, en value habrá un numero telefonico
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Si field_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es un 4 será una nota adjunta al usuario.
+* Si </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>field_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es un 22, la fila contendrá información de prioridad de un ticket. En donde </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tiene el valor de tal prioridad y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> deja de ser nulo y será el id de la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_ticket_priority</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de dicha prioridad. 
+* Si </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>field_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es 20, la fila será el asunto del ticket y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> contendrá el titulo o valor de asunto.</t>
+    </r>
+  </si>
+  <si>
+    <t>ost_ticket__cdata</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cada fila establece la prioridad de los tickets de la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_ticket.</t>
+    </r>
+  </si>
+  <si>
+    <t>ost_ticket_priority</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Es una conexión entre la tabla </t>
     </r>
     <r>
       <rPr>
@@ -1065,156 +1493,66 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>ost_ticket</t>
-  </si>
-  <si>
-    <t>ost_ticket_status</t>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> o numero de ticket es un numero aleatorio de 6 digitos convertidos a strings.
-*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>status_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es un id directo a la tabla ost_ticket_status y señala el estado actual del ticket (abierto, cerrado, eliminado, etc).
-*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">topic_id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>es el id de la tabla ost_hep_topic que señala el asunto del ticket (algun problema, consulta, etc).
-*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>isoverdue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es un campo binario que señala si el ticket no ha sido resuelto dentro del limite establecido.
-*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>estduedate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es la fecha limite establecida.
-*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>closed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es la fecha de cierre. Estará nula si no se ha cerrado el ticket.</t>
-    </r>
-  </si>
-  <si>
-    <t>Almacena cada uno de los tickets que generan los dintintos usuarios.</t>
-  </si>
-  <si>
-    <t>Señala el estado actual del ticket.</t>
+      <t xml:space="preserve"> y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_ticket_priority</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*Contiene el id de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_ticket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_ticket_priority</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Ademas de contener el asunto.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1357,9 +1695,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1368,6 +1703,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1673,10 +2011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,11 +2027,11 @@
   <sheetData>
     <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1716,11 +2054,11 @@
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>36</v>
+      <c r="D3" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1731,10 +2069,10 @@
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1746,11 +2084,11 @@
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>35</v>
+      <c r="D5" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1761,10 +2099,10 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1776,11 +2114,11 @@
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -1791,11 +2129,11 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>34</v>
+      <c r="D8" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1806,26 +2144,26 @@
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>33</v>
+      <c r="C9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" ref="A10:A18" si="1">A9+1</f>
+        <f t="shared" ref="A10:A23" si="1">A9+1</f>
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -1834,13 +2172,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>37</v>
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1849,28 +2187,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="138" customHeight="1" x14ac:dyDescent="0.25">
@@ -1879,13 +2217,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1894,12 +2232,12 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1909,12 +2247,12 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1922,21 +2260,76 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/datos_osticket/tablas relevantes osTicket.xlsx
+++ b/datos_osticket/tablas relevantes osTicket.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Tabla</t>
   </si>
@@ -599,6 +599,954 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> o numero de ticket es un numero aleatorio de 6 digitos convertidos a strings.
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es un id directo a la tabla</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ost_ticket_status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y señala el estado actual del ticket (abierto, cerrado, eliminado, etc).
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">topic_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">es el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la tabla</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ost_hep_topic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> que señala el asunto del ticket (algun problema, consulta, etc).
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isoverdue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es un campo binario que señala si el ticket no ha sido resuelto dentro del limite establecido.
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>est_duedate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es la fecha limite establecida.
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>closed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es la fecha de cierre. Estará nula si no se ha cerrado el ticket.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*Si </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es "U", </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es su </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_user, title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es el nombre completo del usuario y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tiene información como el telefono, correo y notas del usuario (Esto separado por espacios).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Normalmente </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es nulo.
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entry_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de registro de la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_form_entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>field_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_form_field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y señala que tipo de dato se almacena en value.
+* Si </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>field_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es un 3, en value habrá un numero telefonico
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Si field_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es un 4 será una nota adjunta al usuario.
+* Si </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>field_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es un 22, la fila contendrá información de prioridad de un ticket. En donde </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tiene el valor de tal prioridad y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> deja de ser nulo y será el id de la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_ticket_priority</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de dicha prioridad. 
+* Si </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>field_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es 20, la fila será el asunto del ticket y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> contendrá el titulo o valor de asunto.</t>
+    </r>
+  </si>
+  <si>
+    <t>ost_ticket__cdata</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cada fila establece la prioridad de los tickets de la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_ticket.</t>
+    </r>
+  </si>
+  <si>
+    <t>ost_ticket_priority</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Es una conexión entre la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_ticket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_ticket_priority</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*Contiene el id de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_ticket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_ticket_priority</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Ademas de contener el asunto.</t>
+    </r>
+  </si>
+  <si>
+    <t>ost_task</t>
+  </si>
+  <si>
+    <t>ost_task__cdata</t>
+  </si>
+  <si>
+    <t>Almacena todas las tareas asignadas a los distintos agentes</t>
+  </si>
+  <si>
+    <r>
+      <t>Almacena el titulo de las tareas asignadas en</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ost_task.</t>
+    </r>
+  </si>
+  <si>
+    <t>ost_thread</t>
+  </si>
+  <si>
+    <t>ost_thread_event</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Establece conexiones con distintos objetos (como con la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Almacena disintos eventos que han sucedido, por ejemplo la creación de una tarea</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>staff_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es la el staff_id de la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_staff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>task_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es id de la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>ost_thread_entry</t>
+  </si>
+  <si>
+    <t>Almacena los mensajes o chats que se han dado dentro de las tareas.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Si </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tiene valor "A", object_id es el id en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">* Si </t>
     </r>
     <r>
@@ -810,748 +1758,55 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>.
+*Si object_type tiene valor "A", object_id sera el id en la tabla ost_task.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">thread_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">es el id de la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost_thread</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> o numero de ticket es un numero aleatorio de 6 digitos convertidos a strings.
-* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>status_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es un id directo a la tabla</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ost_ticket_status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> y señala el estado actual del ticket (abierto, cerrado, eliminado, etc).
-* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">topic_id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">es el </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de la tabla</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ost_hep_topic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> que señala el asunto del ticket (algun problema, consulta, etc).
-* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>isoverdue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es un campo binario que señala si el ticket no ha sido resuelto dentro del limite establecido.
-* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>est_duedate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es la fecha limite establecida.
-* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>closed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es la fecha de cierre. Estará nula si no se ha cerrado el ticket.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">*Si </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>object_type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es "U", </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>object_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es su </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> en la tabla </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ost_user, title</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es el nombre completo del usuario y </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>content</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tiene información como el telefono, correo y notas del usuario (Esto separado por espacios).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* Normalmente </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>value_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es nulo.
-* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>entry_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es el </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de registro de la tabla </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ost_form_entry</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>field_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es el </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de la tabla </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ost_form_field</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> y señala que tipo de dato se almacena en value.
-* Si </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>field_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es un 3, en value habrá un numero telefonico
-* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Si field_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es un 4 será una nota adjunta al usuario.
-* Si </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>field_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es un 22, la fila contendrá información de prioridad de un ticket. En donde </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tiene el valor de tal prioridad y </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>value_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> deja de ser nulo y será el id de la tabla </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ost_ticket_priority</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de dicha prioridad. 
-* Si </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>field_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es 20, la fila será el asunto del ticket y </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> contendrá el titulo o valor de asunto.</t>
-    </r>
-  </si>
-  <si>
-    <t>ost_ticket__cdata</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cada fila establece la prioridad de los tickets de la tabla </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ost_ticket.</t>
-    </r>
-  </si>
-  <si>
-    <t>ost_ticket_priority</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Es una conexión entre la tabla </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ost_ticket</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> y </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ost_ticket_priority</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">*Contiene el id de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ost_ticket</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> y </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ost_ticket_priority</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Ademas de contener el asunto.</t>
     </r>
   </si>
 </sst>
@@ -2011,10 +2266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,7 +2408,7 @@
     </row>
     <row r="10" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" ref="A10:A23" si="1">A9+1</f>
+        <f t="shared" ref="A10:A24" si="1">A9+1</f>
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2181,7 +2436,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2193,7 +2448,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2208,7 +2463,7 @@
         <v>27</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="138" customHeight="1" x14ac:dyDescent="0.25">
@@ -2223,7 +2478,7 @@
         <v>32</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2238,7 +2493,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -2273,10 +2528,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="8"/>
     </row>
@@ -2286,50 +2541,87 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
+      <c r="B20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
+      <c r="B21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
+      <c r="B23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
